--- a/data/relatorio_vendas.xlsx
+++ b/data/relatorio_vendas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Projeto Financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA170F9D-C6F1-4A51-B299-5710031CB1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A89F89-6801-456C-87B2-3077BB801074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JANEIRO" sheetId="219" r:id="rId1"/>
@@ -149,12 +149,6 @@
     <t>VENDAS 2024</t>
   </si>
   <si>
-    <t>VENDA DO DIA 08/04/2025</t>
-  </si>
-  <si>
-    <t>VENDAS DO DIA 08/04/2024</t>
-  </si>
-  <si>
     <t>PERDAS ABR</t>
   </si>
   <si>
@@ -162,6 +156,12 @@
   </si>
   <si>
     <t>ABR.2024</t>
+  </si>
+  <si>
+    <t>VENDA DO DIA 09/04/2025</t>
+  </si>
+  <si>
+    <t>VENDAS DO DIA 09/04/2024</t>
   </si>
 </sst>
 </file>
@@ -3139,8 +3139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC79EF61-07CF-4DE0-923B-C1603E1585C7}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3169,10 +3169,10 @@
         <v>33</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>34</v>
@@ -3181,7 +3181,7 @@
         <v>35</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>10</v>
@@ -3190,7 +3190,7 @@
         <v>16</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K1" s="32" t="s">
         <v>14</v>
@@ -3199,7 +3199,7 @@
         <v>19</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N1" s="29" t="s">
         <v>20</v>
@@ -3216,18 +3216,20 @@
         <v>17000</v>
       </c>
       <c r="C2" s="35">
-        <v>353.21</v>
+        <v>292.67</v>
       </c>
       <c r="D2" s="35">
-        <v>461.51</v>
+        <v>840.62</v>
       </c>
       <c r="E2" s="35">
-        <v>3833.32</v>
+        <v>4125.99</v>
       </c>
       <c r="F2" s="35">
-        <v>3756.69</v>
-      </c>
-      <c r="G2" s="20"/>
+        <v>4597.3100000000004</v>
+      </c>
+      <c r="G2" s="20">
+        <v>68.69</v>
+      </c>
       <c r="H2" s="20">
         <v>3833.32</v>
       </c>
@@ -3238,16 +3240,16 @@
         <v>626.98476190476197</v>
       </c>
       <c r="K2" s="21">
-        <v>13895.785</v>
+        <v>13073.52222222222</v>
       </c>
       <c r="L2" s="23">
-        <v>2.0398276142029204E-2</v>
+        <v>-0.10252082195892825</v>
       </c>
       <c r="M2" s="20">
         <v>13789.99</v>
       </c>
       <c r="N2" s="23">
-        <v>7.6718692326825533E-3</v>
+        <v>-5.1955641576083733E-2</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>1</v>
@@ -3261,16 +3263,16 @@
         <v>29000</v>
       </c>
       <c r="C3" s="2">
-        <v>1338.83</v>
+        <v>979.38</v>
       </c>
       <c r="D3" s="2">
-        <v>787.39</v>
+        <v>925.49</v>
       </c>
       <c r="E3" s="2">
-        <v>10250.35</v>
+        <v>11229.73</v>
       </c>
       <c r="F3" s="2">
-        <v>7006.23</v>
+        <v>7931.72</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
@@ -3283,16 +3285,16 @@
         <v>892.84047619047624</v>
       </c>
       <c r="K3" s="3">
-        <v>37157.518750000003</v>
+        <v>36184.685555555552</v>
       </c>
       <c r="L3" s="23">
-        <v>0.46303361436892598</v>
+        <v>0.4158001038866726</v>
       </c>
       <c r="M3" s="2">
         <v>24611.05</v>
       </c>
       <c r="N3" s="23">
-        <v>0.5097900638127999</v>
+        <v>0.47026175460029351</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>2</v>
@@ -3306,16 +3308,18 @@
         <v>19000</v>
       </c>
       <c r="C4" s="8">
-        <v>779.04</v>
+        <f>-14.9+539.81</f>
+        <v>524.91</v>
       </c>
       <c r="D4" s="8">
-        <v>383.68</v>
+        <v>658.65</v>
       </c>
       <c r="E4" s="8">
-        <v>6225.37</v>
+        <f>-14.9+6765.18</f>
+        <v>6750.2800000000007</v>
       </c>
       <c r="F4" s="8">
-        <v>4490.8</v>
+        <v>5149.45</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8">
@@ -3328,16 +3332,16 @@
         <v>608.31571428571431</v>
       </c>
       <c r="K4" s="9">
-        <v>22566.966250000001</v>
+        <v>21750.902222222227</v>
       </c>
       <c r="L4" s="23">
-        <v>0.38624966598378907</v>
+        <v>0.31087397683247758</v>
       </c>
       <c r="M4" s="8">
         <v>15721.71</v>
       </c>
       <c r="N4" s="23">
-        <v>0.4354015084873083</v>
+        <v>0.38349468487983984</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>3</v>
@@ -3351,16 +3355,16 @@
         <v>23900</v>
       </c>
       <c r="C5" s="2">
-        <v>1119.28</v>
+        <v>861.17</v>
       </c>
       <c r="D5" s="2">
-        <v>1336.1</v>
+        <v>620.45000000000005</v>
       </c>
       <c r="E5" s="2">
-        <v>10076.89</v>
+        <v>10938.06</v>
       </c>
       <c r="F5" s="2">
-        <v>5962.09</v>
+        <v>6582.54</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
@@ -3373,16 +3377,16 @@
         <v>921.54066666666665</v>
       </c>
       <c r="K5" s="3">
-        <v>35269.114999999998</v>
+        <v>32814.18</v>
       </c>
       <c r="L5" s="23">
-        <v>0.69016066513588359</v>
+        <v>0.66167771103555761</v>
       </c>
       <c r="M5" s="2">
         <v>20858.75</v>
       </c>
       <c r="N5" s="23">
-        <v>0.69085467729370176</v>
+        <v>0.57316138311260256</v>
       </c>
       <c r="O5" s="13" t="s">
         <v>4</v>
@@ -3396,18 +3400,22 @@
         <v>21000</v>
       </c>
       <c r="C6" s="8">
-        <v>747.34</v>
+        <v>592.13</v>
       </c>
       <c r="D6" s="8">
-        <v>816.88</v>
+        <f>-12.78+1007.98</f>
+        <v>995.2</v>
       </c>
       <c r="E6" s="8">
-        <v>4976.6499999999996</v>
+        <v>5568.78</v>
       </c>
       <c r="F6" s="8">
-        <v>5660.21</v>
-      </c>
-      <c r="G6" s="8"/>
+        <f>-12.78+6668.19</f>
+        <v>6655.41</v>
+      </c>
+      <c r="G6" s="8">
+        <v>9.84</v>
+      </c>
       <c r="H6" s="8">
         <v>4976.6499999999996</v>
       </c>
@@ -3418,16 +3426,16 @@
         <v>763.01666666666665</v>
       </c>
       <c r="K6" s="9">
-        <v>18040.356249999997</v>
+        <v>17912.14</v>
       </c>
       <c r="L6" s="23">
-        <v>-0.12076583730992325</v>
+        <v>-0.16327018170180352</v>
       </c>
       <c r="M6" s="8">
         <v>18128.64</v>
       </c>
       <c r="N6" s="23">
-        <v>-4.8698495860693925E-3</v>
+        <v>-1.1942429216973806E-2</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>5</v>
@@ -3441,16 +3449,17 @@
         <v>16500</v>
       </c>
       <c r="C7" s="2">
-        <v>851.28</v>
+        <v>391.19</v>
       </c>
       <c r="D7" s="2">
-        <v>437.19</v>
+        <v>375.86</v>
       </c>
       <c r="E7" s="2">
-        <v>4387.2699999999995</v>
+        <f>-5.97+4784.43</f>
+        <v>4778.46</v>
       </c>
       <c r="F7" s="2">
-        <v>3355.9</v>
+        <v>3731.76</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
@@ -3463,16 +3472,16 @@
         <v>576.79666666666662</v>
       </c>
       <c r="K7" s="3">
-        <v>15903.853749999998</v>
+        <v>15397.260000000002</v>
       </c>
       <c r="L7" s="23">
-        <v>0.30733037337226959</v>
+        <v>0.28048427551611044</v>
       </c>
       <c r="M7" s="2">
         <v>12669.5</v>
       </c>
       <c r="N7" s="23">
-        <v>0.25528661352065968</v>
+        <v>0.21530131417972315</v>
       </c>
       <c r="O7" s="13" t="s">
         <v>6</v>
@@ -3486,16 +3495,16 @@
         <v>23000</v>
       </c>
       <c r="C8" s="8">
-        <v>793.69</v>
+        <v>812.01</v>
       </c>
       <c r="D8" s="8">
-        <v>524.07000000000005</v>
+        <v>497.69</v>
       </c>
       <c r="E8" s="8">
-        <v>7215.24</v>
+        <v>8027.25</v>
       </c>
       <c r="F8" s="8">
-        <v>4604.7299999999996</v>
+        <v>5102.42</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8">
@@ -3508,16 +3517,16 @@
         <v>751.65523809523813</v>
       </c>
       <c r="K8" s="9">
-        <v>26155.245000000003</v>
+        <v>25865.583333333332</v>
       </c>
       <c r="L8" s="23">
-        <v>0.56691923304949488</v>
+        <v>0.57322407798652397</v>
       </c>
       <c r="M8" s="8">
         <v>15939.4</v>
       </c>
       <c r="N8" s="23">
-        <v>0.6409177886244154</v>
+        <v>0.62274510542011174</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>7</v>
@@ -3531,16 +3540,16 @@
         <v>23500</v>
       </c>
       <c r="C9" s="2">
-        <v>992.46</v>
+        <v>739.89</v>
       </c>
       <c r="D9" s="2">
-        <v>341.88</v>
+        <v>812.41</v>
       </c>
       <c r="E9" s="2">
-        <v>6859.04</v>
+        <v>7598.83</v>
       </c>
       <c r="F9" s="2">
-        <v>4717.07</v>
+        <v>5529.48</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
@@ -3553,16 +3562,16 @@
         <v>792.42666666666662</v>
       </c>
       <c r="K9" s="3">
-        <v>24864.02</v>
+        <v>24485.118888888886</v>
       </c>
       <c r="L9" s="23">
-        <v>0.45408908496163947</v>
+        <v>0.37423953066111099</v>
       </c>
       <c r="M9" s="2">
         <v>14560.61</v>
       </c>
       <c r="N9" s="23">
-        <v>0.70762213945706942</v>
+        <v>0.68159980171770851</v>
       </c>
       <c r="O9" s="13" t="s">
         <v>8</v>
@@ -3576,16 +3585,16 @@
         <v>17000</v>
       </c>
       <c r="C10" s="8">
-        <v>917.82</v>
+        <v>293.27999999999997</v>
       </c>
       <c r="D10" s="8">
-        <v>577.77</v>
+        <v>896.46</v>
       </c>
       <c r="E10" s="8">
-        <v>5165.74</v>
+        <v>5459.02</v>
       </c>
       <c r="F10" s="8">
-        <v>3471.87</v>
+        <v>4368.33</v>
       </c>
       <c r="G10" s="8">
         <v>28.4</v>
@@ -3600,16 +3609,16 @@
         <v>564.88857142857137</v>
       </c>
       <c r="K10" s="9">
-        <v>18622.857499999998</v>
+        <v>17498.664444444446</v>
       </c>
       <c r="L10" s="23">
-        <v>0.4878840509581292</v>
+        <v>0.24968122829548137</v>
       </c>
       <c r="M10" s="8">
         <v>12418.52</v>
       </c>
       <c r="N10" s="23">
-        <v>0.4996036162119154</v>
+        <v>0.40907809017857572</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>9</v>
@@ -3623,16 +3632,16 @@
         <v>21000</v>
       </c>
       <c r="C11" s="6">
-        <v>346.5</v>
+        <v>839.19</v>
       </c>
       <c r="D11" s="6">
-        <v>589.41999999999996</v>
+        <v>637.52</v>
       </c>
       <c r="E11" s="6">
-        <v>5785.1</v>
+        <v>6624.29</v>
       </c>
       <c r="F11" s="6">
-        <v>4527.5</v>
+        <v>5165.0200000000004</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6">
@@ -3645,16 +3654,16 @@
         <v>724.51904761904757</v>
       </c>
       <c r="K11" s="10">
-        <v>20970.987500000003</v>
+        <v>21344.934444444443</v>
       </c>
       <c r="L11" s="37">
-        <v>0.27776918829376029</v>
+        <v>0.28252939969254698</v>
       </c>
       <c r="M11" s="6">
         <v>17767.93</v>
       </c>
       <c r="N11" s="23">
-        <v>0.18027184370942492</v>
+        <v>0.20131801759937404</v>
       </c>
       <c r="O11" s="38" t="s">
         <v>12</v>

--- a/data/relatorio_vendas.xlsx
+++ b/data/relatorio_vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Projeto Financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A89F89-6801-456C-87B2-3077BB801074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4709ECE5-9F63-4489-A09E-9A5E4F139B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,10 +158,10 @@
     <t>ABR.2024</t>
   </si>
   <si>
-    <t>VENDA DO DIA 09/04/2025</t>
-  </si>
-  <si>
-    <t>VENDAS DO DIA 09/04/2024</t>
+    <t>VENDA DO DIA 10/04/2025</t>
+  </si>
+  <si>
+    <t>VENDAS DO DIA 10/04/2024</t>
   </si>
 </sst>
 </file>
@@ -3139,8 +3139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC79EF61-07CF-4DE0-923B-C1603E1585C7}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3216,40 +3216,40 @@
         <v>17000</v>
       </c>
       <c r="C2" s="35">
-        <v>292.67</v>
+        <v>402.61</v>
       </c>
       <c r="D2" s="35">
-        <v>840.62</v>
+        <v>494.84</v>
       </c>
       <c r="E2" s="35">
-        <v>4125.99</v>
+        <v>4528.6000000000004</v>
       </c>
       <c r="F2" s="35">
-        <v>4597.3100000000004</v>
+        <v>5092.1499999999996</v>
       </c>
       <c r="G2" s="20">
         <v>68.69</v>
       </c>
       <c r="H2" s="20">
-        <v>3833.32</v>
+        <v>4459.9100000000008</v>
       </c>
       <c r="I2" s="20">
-        <v>13166.68</v>
+        <v>12540.09</v>
       </c>
       <c r="J2" s="20">
-        <v>626.98476190476197</v>
+        <v>660.00473684210522</v>
       </c>
       <c r="K2" s="21">
-        <v>13073.52222222222</v>
+        <v>12933.739000000001</v>
       </c>
       <c r="L2" s="23">
-        <v>-0.10252082195892825</v>
+        <v>-0.11067034553184783</v>
       </c>
       <c r="M2" s="20">
         <v>13789.99</v>
       </c>
       <c r="N2" s="23">
-        <v>-5.1955641576083733E-2</v>
+        <v>-6.209221326483913E-2</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>1</v>
@@ -3263,38 +3263,38 @@
         <v>29000</v>
       </c>
       <c r="C3" s="2">
-        <v>979.38</v>
+        <v>1061.69</v>
       </c>
       <c r="D3" s="2">
-        <v>925.49</v>
+        <v>732.21</v>
       </c>
       <c r="E3" s="2">
-        <v>11229.73</v>
+        <v>12291.42</v>
       </c>
       <c r="F3" s="2">
-        <v>7931.72</v>
+        <v>8663.93</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
-        <v>10250.35</v>
+        <v>12291.42</v>
       </c>
       <c r="I3" s="2">
-        <v>18749.650000000001</v>
+        <v>16708.580000000002</v>
       </c>
       <c r="J3" s="2">
-        <v>892.84047619047624</v>
+        <v>879.39894736842109</v>
       </c>
       <c r="K3" s="3">
-        <v>36184.685555555552</v>
+        <v>35645.118000000002</v>
       </c>
       <c r="L3" s="23">
-        <v>0.4158001038866726</v>
+        <v>0.41868874748526363</v>
       </c>
       <c r="M3" s="2">
         <v>24611.05</v>
       </c>
       <c r="N3" s="23">
-        <v>0.47026175460029351</v>
+        <v>0.44833796201299836</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>2</v>
@@ -3308,40 +3308,38 @@
         <v>19000</v>
       </c>
       <c r="C4" s="8">
-        <f>-14.9+539.81</f>
-        <v>524.91</v>
+        <v>234.51</v>
       </c>
       <c r="D4" s="8">
-        <v>658.65</v>
+        <v>364.67</v>
       </c>
       <c r="E4" s="8">
-        <f>-14.9+6765.18</f>
-        <v>6750.2800000000007</v>
+        <v>6984.79</v>
       </c>
       <c r="F4" s="8">
-        <v>5149.45</v>
+        <v>5514.12</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8">
-        <v>6225.37</v>
+        <v>6984.79</v>
       </c>
       <c r="I4" s="8">
-        <v>12774.630000000001</v>
+        <v>12015.21</v>
       </c>
       <c r="J4" s="8">
-        <v>608.31571428571431</v>
+        <v>632.37947368421044</v>
       </c>
       <c r="K4" s="9">
-        <v>21750.902222222227</v>
+        <v>20255.891</v>
       </c>
       <c r="L4" s="23">
-        <v>0.31087397683247758</v>
+        <v>0.26670982858552222</v>
       </c>
       <c r="M4" s="8">
         <v>15721.71</v>
       </c>
       <c r="N4" s="23">
-        <v>0.38349468487983984</v>
+        <v>0.28840253382106651</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>3</v>
@@ -3355,38 +3353,38 @@
         <v>23900</v>
       </c>
       <c r="C5" s="2">
-        <v>861.17</v>
+        <v>711.28</v>
       </c>
       <c r="D5" s="2">
-        <v>620.45000000000005</v>
+        <v>1060.51</v>
       </c>
       <c r="E5" s="2">
-        <v>10938.06</v>
+        <v>11649.34</v>
       </c>
       <c r="F5" s="2">
-        <v>6582.54</v>
+        <v>7643.05</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
-        <v>10076.89</v>
+        <v>11649.34</v>
       </c>
       <c r="I5" s="2">
-        <v>13823.11</v>
+        <v>12250.66</v>
       </c>
       <c r="J5" s="2">
-        <v>921.54066666666665</v>
+        <v>942.35846153846148</v>
       </c>
       <c r="K5" s="3">
-        <v>32814.18</v>
+        <v>30579.517500000002</v>
       </c>
       <c r="L5" s="23">
-        <v>0.66167771103555761</v>
+        <v>0.52417424980864979</v>
       </c>
       <c r="M5" s="2">
         <v>20858.75</v>
       </c>
       <c r="N5" s="23">
-        <v>0.57316138311260256</v>
+        <v>0.4660282854917</v>
       </c>
       <c r="O5" s="13" t="s">
         <v>4</v>
@@ -3400,42 +3398,40 @@
         <v>21000</v>
       </c>
       <c r="C6" s="8">
-        <v>592.13</v>
+        <v>715.15</v>
       </c>
       <c r="D6" s="8">
-        <f>-12.78+1007.98</f>
-        <v>995.2</v>
+        <v>678.54</v>
       </c>
       <c r="E6" s="8">
-        <v>5568.78</v>
+        <v>6283.93</v>
       </c>
       <c r="F6" s="8">
-        <f>-12.78+6668.19</f>
-        <v>6655.41</v>
+        <v>7333.95</v>
       </c>
       <c r="G6" s="8">
         <v>9.84</v>
       </c>
       <c r="H6" s="8">
-        <v>4976.6499999999996</v>
+        <v>6274.09</v>
       </c>
       <c r="I6" s="8">
-        <v>16023.35</v>
+        <v>14725.91</v>
       </c>
       <c r="J6" s="8">
-        <v>763.01666666666665</v>
+        <v>775.04789473684207</v>
       </c>
       <c r="K6" s="9">
-        <v>17912.14</v>
+        <v>18194.861000000001</v>
       </c>
       <c r="L6" s="23">
-        <v>-0.16327018170180352</v>
+        <v>-0.14317250594836339</v>
       </c>
       <c r="M6" s="8">
         <v>18128.64</v>
       </c>
       <c r="N6" s="23">
-        <v>-1.1942429216973806E-2</v>
+        <v>3.652838822989537E-3</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>5</v>
@@ -3449,39 +3445,38 @@
         <v>16500</v>
       </c>
       <c r="C7" s="2">
-        <v>391.19</v>
+        <v>399.12</v>
       </c>
       <c r="D7" s="2">
-        <v>375.86</v>
+        <v>521.59</v>
       </c>
       <c r="E7" s="2">
-        <f>-5.97+4784.43</f>
-        <v>4778.46</v>
+        <v>5183.55</v>
       </c>
       <c r="F7" s="2">
-        <v>3731.76</v>
+        <v>4253.3500000000004</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
-        <v>4387.2699999999995</v>
+        <v>5183.55</v>
       </c>
       <c r="I7" s="2">
-        <v>12112.73</v>
+        <v>11316.45</v>
       </c>
       <c r="J7" s="2">
-        <v>576.79666666666662</v>
+        <v>595.60263157894735</v>
       </c>
       <c r="K7" s="3">
-        <v>15397.260000000002</v>
+        <v>15032.295000000002</v>
       </c>
       <c r="L7" s="23">
-        <v>0.28048427551611044</v>
+        <v>0.21869820259324996</v>
       </c>
       <c r="M7" s="2">
         <v>12669.5</v>
       </c>
       <c r="N7" s="23">
-        <v>0.21530131417972315</v>
+        <v>0.18649473144165143</v>
       </c>
       <c r="O7" s="13" t="s">
         <v>6</v>
@@ -3495,38 +3490,38 @@
         <v>23000</v>
       </c>
       <c r="C8" s="8">
-        <v>812.01</v>
+        <v>613.95000000000005</v>
       </c>
       <c r="D8" s="8">
-        <v>497.69</v>
+        <v>555.19000000000005</v>
       </c>
       <c r="E8" s="8">
-        <v>8027.25</v>
+        <v>8641.2000000000007</v>
       </c>
       <c r="F8" s="8">
-        <v>5102.42</v>
+        <v>5657.61</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8">
-        <v>7215.24</v>
+        <v>8641.2000000000007</v>
       </c>
       <c r="I8" s="8">
-        <v>15784.76</v>
+        <v>14358.8</v>
       </c>
       <c r="J8" s="8">
-        <v>751.65523809523813</v>
+        <v>755.72631578947369</v>
       </c>
       <c r="K8" s="9">
-        <v>25865.583333333332</v>
+        <v>25059.480000000003</v>
       </c>
       <c r="L8" s="23">
-        <v>0.57322407798652397</v>
+        <v>0.52735872568098585</v>
       </c>
       <c r="M8" s="8">
         <v>15939.4</v>
       </c>
       <c r="N8" s="23">
-        <v>0.62274510542011174</v>
+        <v>0.572172101835703</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>7</v>
@@ -3540,38 +3535,38 @@
         <v>23500</v>
       </c>
       <c r="C9" s="2">
-        <v>739.89</v>
+        <v>223.28</v>
       </c>
       <c r="D9" s="2">
-        <v>812.41</v>
+        <v>450.63</v>
       </c>
       <c r="E9" s="2">
-        <v>7598.83</v>
+        <v>7822.21</v>
       </c>
       <c r="F9" s="2">
-        <v>5529.48</v>
+        <v>5980.11</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
-        <v>6859.04</v>
+        <v>7822.21</v>
       </c>
       <c r="I9" s="2">
-        <v>16640.96</v>
+        <v>15677.79</v>
       </c>
       <c r="J9" s="2">
-        <v>792.42666666666662</v>
+        <v>825.1468421052632</v>
       </c>
       <c r="K9" s="3">
-        <v>24485.118888888886</v>
+        <v>22684.409</v>
       </c>
       <c r="L9" s="23">
-        <v>0.37423953066111099</v>
+        <v>0.30803781201349151</v>
       </c>
       <c r="M9" s="2">
         <v>14560.61</v>
       </c>
       <c r="N9" s="23">
-        <v>0.68159980171770851</v>
+        <v>0.55792985321356725</v>
       </c>
       <c r="O9" s="13" t="s">
         <v>8</v>
@@ -3585,40 +3580,40 @@
         <v>17000</v>
       </c>
       <c r="C10" s="8">
-        <v>293.27999999999997</v>
+        <v>290.51</v>
       </c>
       <c r="D10" s="8">
-        <v>896.46</v>
+        <v>268.05</v>
       </c>
       <c r="E10" s="8">
-        <v>5459.02</v>
+        <v>5749.53</v>
       </c>
       <c r="F10" s="8">
-        <v>4368.33</v>
+        <v>4636.38</v>
       </c>
       <c r="G10" s="8">
         <v>28.4</v>
       </c>
       <c r="H10" s="8">
-        <v>5137.34</v>
+        <v>5721.13</v>
       </c>
       <c r="I10" s="8">
-        <v>11862.66</v>
+        <v>11278.869999999999</v>
       </c>
       <c r="J10" s="8">
-        <v>564.88857142857137</v>
+        <v>593.62473684210522</v>
       </c>
       <c r="K10" s="9">
-        <v>17498.664444444446</v>
+        <v>16591.277000000002</v>
       </c>
       <c r="L10" s="23">
-        <v>0.24968122829548137</v>
+        <v>0.24009032909295613</v>
       </c>
       <c r="M10" s="8">
         <v>12418.52</v>
       </c>
       <c r="N10" s="23">
-        <v>0.40907809017857572</v>
+        <v>0.33601081288269458</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>9</v>
@@ -3632,38 +3627,38 @@
         <v>21000</v>
       </c>
       <c r="C11" s="6">
-        <v>839.19</v>
+        <v>487.66</v>
       </c>
       <c r="D11" s="6">
-        <v>637.52</v>
+        <v>476.96</v>
       </c>
       <c r="E11" s="6">
-        <v>6624.29</v>
+        <v>7111.95</v>
       </c>
       <c r="F11" s="6">
-        <v>5165.0200000000004</v>
+        <v>5641.98</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6">
-        <v>5785.1</v>
+        <v>7111.95</v>
       </c>
       <c r="I11" s="6">
-        <v>15214.9</v>
+        <v>13888.05</v>
       </c>
       <c r="J11" s="6">
-        <v>724.51904761904757</v>
+        <v>730.94999999999993</v>
       </c>
       <c r="K11" s="10">
-        <v>21344.934444444443</v>
+        <v>20624.654999999999</v>
       </c>
       <c r="L11" s="37">
-        <v>0.28252939969254698</v>
+        <v>0.26054151202237519</v>
       </c>
       <c r="M11" s="6">
         <v>17767.93</v>
       </c>
       <c r="N11" s="23">
-        <v>0.20131801759937404</v>
+        <v>0.16077984323441158</v>
       </c>
       <c r="O11" s="38" t="s">
         <v>12</v>

--- a/data/relatorio_vendas.xlsx
+++ b/data/relatorio_vendas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Projeto Financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4709ECE5-9F63-4489-A09E-9A5E4F139B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7D122B-A5F0-4801-9723-6E780F4B5634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JANEIRO" sheetId="219" r:id="rId1"/>
@@ -158,10 +158,10 @@
     <t>ABR.2024</t>
   </si>
   <si>
-    <t>VENDA DO DIA 10/04/2025</t>
-  </si>
-  <si>
-    <t>VENDAS DO DIA 10/04/2024</t>
+    <t>VENDA DO DIA 13/04/2025</t>
+  </si>
+  <si>
+    <t>VENDAS DO DIA 13/04/2024</t>
   </si>
 </sst>
 </file>
@@ -3139,8 +3139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC79EF61-07CF-4DE0-923B-C1603E1585C7}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:O11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3216,16 +3216,16 @@
         <v>17000</v>
       </c>
       <c r="C2" s="35">
-        <v>402.61</v>
+        <v>130.19</v>
       </c>
       <c r="D2" s="35">
-        <v>494.84</v>
+        <v>624.84</v>
       </c>
       <c r="E2" s="35">
-        <v>4528.6000000000004</v>
+        <v>5352.61</v>
       </c>
       <c r="F2" s="35">
-        <v>5092.1499999999996</v>
+        <v>6574.09</v>
       </c>
       <c r="G2" s="20">
         <v>68.69</v>
@@ -3263,16 +3263,16 @@
         <v>29000</v>
       </c>
       <c r="C3" s="2">
-        <v>1061.69</v>
+        <v>661.26</v>
       </c>
       <c r="D3" s="2">
-        <v>732.21</v>
+        <v>839.74</v>
       </c>
       <c r="E3" s="2">
-        <v>12291.42</v>
+        <v>14992.13</v>
       </c>
       <c r="F3" s="2">
-        <v>8663.93</v>
+        <v>10859.13</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
@@ -3308,16 +3308,16 @@
         <v>19000</v>
       </c>
       <c r="C4" s="8">
-        <v>234.51</v>
+        <v>461.03</v>
       </c>
       <c r="D4" s="8">
-        <v>364.67</v>
+        <v>501.52</v>
       </c>
       <c r="E4" s="8">
-        <v>6984.79</v>
+        <v>9048.2000000000007</v>
       </c>
       <c r="F4" s="8">
-        <v>5514.12</v>
+        <v>7089.58</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8">
@@ -3352,17 +3352,15 @@
       <c r="B5" s="39">
         <v>23900</v>
       </c>
-      <c r="C5" s="2">
-        <v>711.28</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>1060.51</v>
+        <v>155.83000000000001</v>
       </c>
       <c r="E5" s="2">
-        <v>11649.34</v>
+        <v>13581.59</v>
       </c>
       <c r="F5" s="2">
-        <v>7643.05</v>
+        <v>9921.57</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
@@ -3398,16 +3396,16 @@
         <v>21000</v>
       </c>
       <c r="C6" s="8">
-        <v>715.15</v>
+        <v>159.71</v>
       </c>
       <c r="D6" s="8">
-        <v>678.54</v>
+        <v>422.79</v>
       </c>
       <c r="E6" s="8">
-        <v>6283.93</v>
+        <v>7579.99</v>
       </c>
       <c r="F6" s="8">
-        <v>7333.95</v>
+        <v>8810.56</v>
       </c>
       <c r="G6" s="8">
         <v>9.84</v>
@@ -3445,16 +3443,16 @@
         <v>16500</v>
       </c>
       <c r="C7" s="2">
-        <v>399.12</v>
+        <v>358.69</v>
       </c>
       <c r="D7" s="2">
-        <v>521.59</v>
+        <v>377.16</v>
       </c>
       <c r="E7" s="2">
-        <v>5183.55</v>
+        <v>6735.58</v>
       </c>
       <c r="F7" s="2">
-        <v>4253.3500000000004</v>
+        <v>5321.42</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
@@ -3490,16 +3488,16 @@
         <v>23000</v>
       </c>
       <c r="C8" s="8">
-        <v>613.95000000000005</v>
+        <v>597.52</v>
       </c>
       <c r="D8" s="8">
-        <v>555.19000000000005</v>
+        <v>724.2</v>
       </c>
       <c r="E8" s="8">
-        <v>8641.2000000000007</v>
+        <v>10784.68</v>
       </c>
       <c r="F8" s="8">
-        <v>5657.61</v>
+        <v>7188.04</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8">
@@ -3535,16 +3533,16 @@
         <v>23500</v>
       </c>
       <c r="C9" s="2">
-        <v>223.28</v>
+        <v>260.24</v>
       </c>
       <c r="D9" s="2">
-        <v>450.63</v>
+        <v>490.02</v>
       </c>
       <c r="E9" s="2">
-        <v>7822.21</v>
+        <v>9485.48</v>
       </c>
       <c r="F9" s="2">
-        <v>5980.11</v>
+        <v>7230.82</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
@@ -3580,16 +3578,16 @@
         <v>17000</v>
       </c>
       <c r="C10" s="8">
-        <v>290.51</v>
+        <v>101.28</v>
       </c>
       <c r="D10" s="8">
-        <v>268.05</v>
+        <v>375.91</v>
       </c>
       <c r="E10" s="8">
-        <v>5749.53</v>
+        <v>7091.27</v>
       </c>
       <c r="F10" s="8">
-        <v>4636.38</v>
+        <v>6344.49</v>
       </c>
       <c r="G10" s="8">
         <v>28.4</v>
@@ -3627,16 +3625,16 @@
         <v>21000</v>
       </c>
       <c r="C11" s="6">
-        <v>487.66</v>
+        <v>606.62</v>
       </c>
       <c r="D11" s="6">
-        <v>476.96</v>
+        <v>1134.3</v>
       </c>
       <c r="E11" s="6">
-        <v>7111.95</v>
+        <v>9282.4599999999991</v>
       </c>
       <c r="F11" s="6">
-        <v>5641.98</v>
+        <v>7626.55</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6">

--- a/data/relatorio_vendas.xlsx
+++ b/data/relatorio_vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Projeto Financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7D122B-A5F0-4801-9723-6E780F4B5634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FE4439-7907-4082-98E8-A76D446AD767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3137,10 +3137,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC79EF61-07CF-4DE0-923B-C1603E1585C7}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="I12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3216,16 +3216,16 @@
         <v>17000</v>
       </c>
       <c r="C2" s="35">
-        <v>130.19</v>
+        <v>529.16</v>
       </c>
       <c r="D2" s="35">
-        <v>624.84</v>
+        <v>302.70999999999998</v>
       </c>
       <c r="E2" s="35">
-        <v>5352.61</v>
+        <v>6783.5</v>
       </c>
       <c r="F2" s="35">
-        <v>6574.09</v>
+        <v>7631.14</v>
       </c>
       <c r="G2" s="20">
         <v>68.69</v>
@@ -3237,19 +3237,19 @@
         <v>12540.09</v>
       </c>
       <c r="J2" s="20">
-        <v>660.00473684210522</v>
+        <v>791.16846153846143</v>
       </c>
       <c r="K2" s="21">
-        <v>12933.739000000001</v>
+        <v>12170.593124999999</v>
       </c>
       <c r="L2" s="23">
-        <v>-0.11067034553184783</v>
+        <v>-0.11107645777695083</v>
       </c>
       <c r="M2" s="20">
         <v>13789.99</v>
       </c>
       <c r="N2" s="23">
-        <v>-6.209221326483913E-2</v>
+        <v>-0.11743278095198036</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>1</v>
@@ -3263,16 +3263,16 @@
         <v>29000</v>
       </c>
       <c r="C3" s="2">
-        <v>661.26</v>
+        <v>751.19</v>
       </c>
       <c r="D3" s="2">
-        <v>839.74</v>
+        <v>1084.49</v>
       </c>
       <c r="E3" s="2">
-        <v>14992.13</v>
+        <v>17770.54</v>
       </c>
       <c r="F3" s="2">
-        <v>10859.13</v>
+        <v>13305.75</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
@@ -3282,19 +3282,19 @@
         <v>16708.580000000002</v>
       </c>
       <c r="J3" s="2">
-        <v>879.39894736842109</v>
+        <v>863.80461538461532</v>
       </c>
       <c r="K3" s="3">
-        <v>35645.118000000002</v>
+        <v>32209.103750000002</v>
       </c>
       <c r="L3" s="23">
-        <v>0.41868874748526363</v>
+        <v>0.33555342615034844</v>
       </c>
       <c r="M3" s="2">
         <v>24611.05</v>
       </c>
       <c r="N3" s="23">
-        <v>0.44833796201299836</v>
+        <v>0.308725298189228</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>2</v>
@@ -3308,18 +3308,20 @@
         <v>19000</v>
       </c>
       <c r="C4" s="8">
-        <v>461.03</v>
+        <v>568.24</v>
       </c>
       <c r="D4" s="8">
-        <v>501.52</v>
+        <v>227.25</v>
       </c>
       <c r="E4" s="8">
-        <v>9048.2000000000007</v>
+        <v>10856.23</v>
       </c>
       <c r="F4" s="8">
-        <v>7089.58</v>
-      </c>
-      <c r="G4" s="8"/>
+        <v>8176.43</v>
+      </c>
+      <c r="G4" s="8">
+        <v>21.15</v>
+      </c>
       <c r="H4" s="8">
         <v>6984.79</v>
       </c>
@@ -3327,19 +3329,19 @@
         <v>12015.21</v>
       </c>
       <c r="J4" s="8">
-        <v>632.37947368421044</v>
+        <v>628.0707692307692</v>
       </c>
       <c r="K4" s="9">
-        <v>20255.891</v>
+        <v>19638.5825</v>
       </c>
       <c r="L4" s="23">
-        <v>0.26670982858552222</v>
+        <v>0.32774695068630194</v>
       </c>
       <c r="M4" s="8">
         <v>15721.71</v>
       </c>
       <c r="N4" s="23">
-        <v>0.28840253382106651</v>
+        <v>0.24913781643345417</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>3</v>
@@ -3352,17 +3354,21 @@
       <c r="B5" s="39">
         <v>23900</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>1174.97</v>
+      </c>
       <c r="D5" s="2">
-        <v>155.83000000000001</v>
+        <v>1109.74</v>
       </c>
       <c r="E5" s="2">
-        <v>13581.59</v>
+        <v>16454.57</v>
       </c>
       <c r="F5" s="2">
-        <v>9921.57</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>12051.51</v>
+      </c>
+      <c r="G5" s="2">
+        <v>39.18</v>
+      </c>
       <c r="H5" s="2">
         <v>11649.34</v>
       </c>
@@ -3370,19 +3376,19 @@
         <v>12250.66</v>
       </c>
       <c r="J5" s="2">
-        <v>942.35846153846148</v>
+        <v>831.62333333333345</v>
       </c>
       <c r="K5" s="3">
-        <v>30579.517500000002</v>
+        <v>28766.112499999999</v>
       </c>
       <c r="L5" s="23">
-        <v>0.52417424980864979</v>
+        <v>0.36535338725188782</v>
       </c>
       <c r="M5" s="2">
         <v>20858.75</v>
       </c>
       <c r="N5" s="23">
-        <v>0.4660282854917</v>
+        <v>0.37909090909090909</v>
       </c>
       <c r="O5" s="13" t="s">
         <v>4</v>
@@ -3396,19 +3402,19 @@
         <v>21000</v>
       </c>
       <c r="C6" s="8">
-        <v>159.71</v>
+        <v>722.95</v>
       </c>
       <c r="D6" s="8">
-        <v>422.79</v>
+        <v>913.28</v>
       </c>
       <c r="E6" s="8">
-        <v>7579.99</v>
+        <v>10050.39</v>
       </c>
       <c r="F6" s="8">
-        <v>8810.56</v>
+        <v>10239.24</v>
       </c>
       <c r="G6" s="8">
-        <v>9.84</v>
+        <v>215.46</v>
       </c>
       <c r="H6" s="8">
         <v>6274.09</v>
@@ -3417,19 +3423,19 @@
         <v>14725.91</v>
       </c>
       <c r="J6" s="8">
-        <v>775.04789473684207</v>
+        <v>858.85153846153844</v>
       </c>
       <c r="K6" s="9">
-        <v>18194.861000000001</v>
+        <v>17825.810624999998</v>
       </c>
       <c r="L6" s="23">
-        <v>-0.14317250594836339</v>
+        <v>-1.8443751684695257E-2</v>
       </c>
       <c r="M6" s="8">
         <v>18128.64</v>
       </c>
       <c r="N6" s="23">
-        <v>3.652838822989537E-3</v>
+        <v>-1.6704472867242259E-2</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>5</v>
@@ -3443,18 +3449,20 @@
         <v>16500</v>
       </c>
       <c r="C7" s="2">
-        <v>358.69</v>
+        <v>353.34</v>
       </c>
       <c r="D7" s="2">
-        <v>377.16</v>
+        <v>528.33000000000004</v>
       </c>
       <c r="E7" s="2">
-        <v>6735.58</v>
+        <v>7857.5099999999993</v>
       </c>
       <c r="F7" s="2">
-        <v>5321.42</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>6618.38</v>
+      </c>
+      <c r="G7" s="2">
+        <v>36.269999999999996</v>
+      </c>
       <c r="H7" s="2">
         <v>5183.55</v>
       </c>
@@ -3462,19 +3470,19 @@
         <v>11316.45</v>
       </c>
       <c r="J7" s="2">
-        <v>595.60263157894735</v>
+        <v>667.59692307692319</v>
       </c>
       <c r="K7" s="3">
-        <v>15032.295000000002</v>
+        <v>14175.997499999998</v>
       </c>
       <c r="L7" s="23">
-        <v>0.21869820259324996</v>
+        <v>0.18722557483855554</v>
       </c>
       <c r="M7" s="2">
         <v>12669.5</v>
       </c>
       <c r="N7" s="23">
-        <v>0.18649473144165143</v>
+        <v>0.11890741544654461</v>
       </c>
       <c r="O7" s="13" t="s">
         <v>6</v>
@@ -3488,16 +3496,16 @@
         <v>23000</v>
       </c>
       <c r="C8" s="8">
-        <v>597.52</v>
+        <v>621.63</v>
       </c>
       <c r="D8" s="8">
-        <v>724.2</v>
+        <v>290.36</v>
       </c>
       <c r="E8" s="8">
-        <v>10784.68</v>
+        <v>12917.76</v>
       </c>
       <c r="F8" s="8">
-        <v>7188.04</v>
+        <v>8453.9500000000007</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8">
@@ -3507,19 +3515,19 @@
         <v>14358.8</v>
       </c>
       <c r="J8" s="8">
-        <v>755.72631578947369</v>
+        <v>775.55692307692311</v>
       </c>
       <c r="K8" s="9">
-        <v>25059.480000000003</v>
+        <v>23413.440000000002</v>
       </c>
       <c r="L8" s="23">
-        <v>0.52735872568098585</v>
+        <v>0.52801471501487474</v>
       </c>
       <c r="M8" s="8">
         <v>15939.4</v>
       </c>
       <c r="N8" s="23">
-        <v>0.572172101835703</v>
+        <v>0.46890347189982068</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>7</v>
@@ -3533,16 +3541,16 @@
         <v>23500</v>
       </c>
       <c r="C9" s="2">
-        <v>260.24</v>
+        <v>449.33</v>
       </c>
       <c r="D9" s="2">
-        <v>490.02</v>
+        <v>394.82</v>
       </c>
       <c r="E9" s="2">
-        <v>9485.48</v>
+        <v>11280.07</v>
       </c>
       <c r="F9" s="2">
-        <v>7230.82</v>
+        <v>8328.07</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
@@ -3552,19 +3560,19 @@
         <v>15677.79</v>
       </c>
       <c r="J9" s="2">
-        <v>825.1468421052632</v>
+        <v>939.99461538461537</v>
       </c>
       <c r="K9" s="3">
-        <v>22684.409</v>
+        <v>20445.126875000002</v>
       </c>
       <c r="L9" s="23">
-        <v>0.30803781201349151</v>
+        <v>0.35446387938622026</v>
       </c>
       <c r="M9" s="2">
         <v>14560.61</v>
       </c>
       <c r="N9" s="23">
-        <v>0.55792985321356725</v>
+        <v>0.40413944711107574</v>
       </c>
       <c r="O9" s="13" t="s">
         <v>8</v>
@@ -3578,16 +3586,16 @@
         <v>17000</v>
       </c>
       <c r="C10" s="8">
-        <v>101.28</v>
+        <v>666.02</v>
       </c>
       <c r="D10" s="8">
-        <v>375.91</v>
+        <v>476.06</v>
       </c>
       <c r="E10" s="8">
-        <v>7091.27</v>
+        <v>8684.31</v>
       </c>
       <c r="F10" s="8">
-        <v>6344.49</v>
+        <v>7262.01</v>
       </c>
       <c r="G10" s="8">
         <v>28.4</v>
@@ -3599,19 +3607,19 @@
         <v>11278.869999999999</v>
       </c>
       <c r="J10" s="8">
-        <v>593.62473684210522</v>
+        <v>641.85307692307697</v>
       </c>
       <c r="K10" s="9">
-        <v>16591.277000000002</v>
+        <v>15688.836875000001</v>
       </c>
       <c r="L10" s="23">
-        <v>0.24009032909295613</v>
+        <v>0.19585486662783438</v>
       </c>
       <c r="M10" s="8">
         <v>12418.52</v>
       </c>
       <c r="N10" s="23">
-        <v>0.33601081288269458</v>
+        <v>0.26334191795801742</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>9</v>
@@ -3625,16 +3633,16 @@
         <v>21000</v>
       </c>
       <c r="C11" s="6">
-        <v>606.62</v>
+        <v>479.59</v>
       </c>
       <c r="D11" s="6">
-        <v>1134.3</v>
+        <v>497.11</v>
       </c>
       <c r="E11" s="6">
-        <v>9282.4599999999991</v>
+        <v>10757.13</v>
       </c>
       <c r="F11" s="6">
-        <v>7626.55</v>
+        <v>9356.7000000000007</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6">
@@ -3644,34 +3652,23 @@
         <v>13888.05</v>
       </c>
       <c r="J11" s="6">
-        <v>730.94999999999993</v>
+        <v>787.91307692307703</v>
       </c>
       <c r="K11" s="10">
-        <v>20624.654999999999</v>
+        <v>19497.298125000001</v>
       </c>
       <c r="L11" s="37">
-        <v>0.26054151202237519</v>
+        <v>0.14967135849177582</v>
       </c>
       <c r="M11" s="6">
         <v>17767.93</v>
       </c>
       <c r="N11" s="23">
-        <v>0.16077984323441158</v>
+        <v>9.7330872251297648E-2</v>
       </c>
       <c r="O11" s="38" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/relatorio_vendas.xlsx
+++ b/data/relatorio_vendas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Projeto Financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FE4439-7907-4082-98E8-A76D446AD767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E29292-A949-4DA1-ABCD-7FD4CBBE5E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JANEIRO" sheetId="219" r:id="rId1"/>
@@ -152,16 +152,16 @@
     <t>PERDAS ABR</t>
   </si>
   <si>
-    <t xml:space="preserve">  META DO DIA 09/04</t>
-  </si>
-  <si>
     <t>ABR.2024</t>
   </si>
   <si>
-    <t>VENDA DO DIA 13/04/2025</t>
-  </si>
-  <si>
-    <t>VENDAS DO DIA 13/04/2024</t>
+    <t>VENDA DO DIA 27/04/2025</t>
+  </si>
+  <si>
+    <t>VENDAS DO DIA 27/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  META DO DIA 28/04</t>
   </si>
 </sst>
 </file>
@@ -3139,8 +3139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC79EF61-07CF-4DE0-923B-C1603E1585C7}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="I12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3169,10 +3169,10 @@
         <v>33</v>
       </c>
       <c r="C1" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>34</v>
@@ -3190,7 +3190,7 @@
         <v>16</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K1" s="32" t="s">
         <v>14</v>
@@ -3199,7 +3199,7 @@
         <v>19</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N1" s="29" t="s">
         <v>20</v>
@@ -3216,40 +3216,40 @@
         <v>17000</v>
       </c>
       <c r="C2" s="35">
-        <v>529.16</v>
+        <v>193.07</v>
       </c>
       <c r="D2" s="35">
-        <v>302.70999999999998</v>
+        <v>555.79999999999995</v>
       </c>
       <c r="E2" s="35">
-        <v>6783.5</v>
+        <v>10737.44</v>
       </c>
       <c r="F2" s="35">
-        <v>7631.14</v>
+        <v>12621</v>
       </c>
       <c r="G2" s="20">
-        <v>68.69</v>
+        <v>196.41</v>
       </c>
       <c r="H2" s="20">
-        <v>4459.9100000000008</v>
+        <v>10541.03</v>
       </c>
       <c r="I2" s="20">
-        <v>12540.09</v>
+        <v>6458.9699999999993</v>
       </c>
       <c r="J2" s="20">
-        <v>791.16846153846143</v>
+        <v>2152.9899999999998</v>
       </c>
       <c r="K2" s="21">
-        <v>12170.593124999999</v>
+        <v>11757.302692307694</v>
       </c>
       <c r="L2" s="23">
-        <v>-0.11107645777695083</v>
+        <v>-0.14924015529672771</v>
       </c>
       <c r="M2" s="20">
         <v>13789.99</v>
       </c>
       <c r="N2" s="23">
-        <v>-0.11743278095198036</v>
+        <v>-0.14740310237297521</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>1</v>
@@ -3263,38 +3263,38 @@
         <v>29000</v>
       </c>
       <c r="C3" s="2">
-        <v>751.19</v>
+        <v>456.83</v>
       </c>
       <c r="D3" s="2">
-        <v>1084.49</v>
+        <v>1054.3</v>
       </c>
       <c r="E3" s="2">
-        <v>17770.54</v>
+        <v>26028.02</v>
       </c>
       <c r="F3" s="2">
-        <v>13305.75</v>
+        <v>22122.17</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
-        <v>12291.42</v>
+        <v>26028.02</v>
       </c>
       <c r="I3" s="2">
-        <v>16708.580000000002</v>
+        <v>2971.9799999999996</v>
       </c>
       <c r="J3" s="2">
-        <v>863.80461538461532</v>
+        <v>990.65999999999985</v>
       </c>
       <c r="K3" s="3">
-        <v>32209.103750000002</v>
+        <v>29031.253076923076</v>
       </c>
       <c r="L3" s="23">
-        <v>0.33555342615034844</v>
+        <v>0.17655817670689644</v>
       </c>
       <c r="M3" s="2">
         <v>24611.05</v>
       </c>
       <c r="N3" s="23">
-        <v>0.308725298189228</v>
+        <v>0.17960237685604952</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>2</v>
@@ -3308,40 +3308,40 @@
         <v>19000</v>
       </c>
       <c r="C4" s="8">
-        <v>568.24</v>
+        <v>486.3</v>
       </c>
       <c r="D4" s="8">
-        <v>227.25</v>
+        <v>837.89</v>
       </c>
       <c r="E4" s="8">
-        <v>10856.23</v>
+        <v>15739.54</v>
       </c>
       <c r="F4" s="8">
-        <v>8176.43</v>
+        <v>14656.95</v>
       </c>
       <c r="G4" s="8">
-        <v>21.15</v>
+        <v>51.99</v>
       </c>
       <c r="H4" s="8">
-        <v>6984.79</v>
+        <v>15687.550000000001</v>
       </c>
       <c r="I4" s="8">
-        <v>12015.21</v>
+        <v>3312.4499999999989</v>
       </c>
       <c r="J4" s="8">
-        <v>628.0707692307692</v>
+        <v>1104.1499999999996</v>
       </c>
       <c r="K4" s="9">
-        <v>19638.5825</v>
+        <v>17497.651923076923</v>
       </c>
       <c r="L4" s="23">
-        <v>0.32774695068630194</v>
+        <v>7.3861888046285171E-2</v>
       </c>
       <c r="M4" s="8">
         <v>15721.71</v>
       </c>
       <c r="N4" s="23">
-        <v>0.24913781643345417</v>
+        <v>0.11296111702078988</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>3</v>
@@ -3354,41 +3354,39 @@
       <c r="B5" s="39">
         <v>23900</v>
       </c>
-      <c r="C5" s="2">
-        <v>1174.97</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>1109.74</v>
+        <v>282.45999999999998</v>
       </c>
       <c r="E5" s="2">
-        <v>16454.57</v>
+        <v>21025.02</v>
       </c>
       <c r="F5" s="2">
-        <v>12051.51</v>
+        <v>18800.73</v>
       </c>
       <c r="G5" s="2">
         <v>39.18</v>
       </c>
       <c r="H5" s="2">
-        <v>11649.34</v>
+        <v>20985.84</v>
       </c>
       <c r="I5" s="2">
-        <v>12250.66</v>
+        <v>2914.16</v>
       </c>
       <c r="J5" s="2">
-        <v>831.62333333333345</v>
+        <v>971.38666666666666</v>
       </c>
       <c r="K5" s="3">
-        <v>28766.112499999999</v>
+        <v>24522.66</v>
       </c>
       <c r="L5" s="23">
-        <v>0.36535338725188782</v>
+        <v>0.11830870397053729</v>
       </c>
       <c r="M5" s="2">
         <v>20858.75</v>
       </c>
       <c r="N5" s="23">
-        <v>0.37909090909090909</v>
+        <v>0.17565338287289506</v>
       </c>
       <c r="O5" s="13" t="s">
         <v>4</v>
@@ -3402,40 +3400,40 @@
         <v>21000</v>
       </c>
       <c r="C6" s="8">
-        <v>722.95</v>
+        <v>190.19</v>
       </c>
       <c r="D6" s="8">
-        <v>913.28</v>
+        <v>861.43</v>
       </c>
       <c r="E6" s="8">
-        <v>10050.39</v>
+        <v>14751.49</v>
       </c>
       <c r="F6" s="8">
-        <v>10239.24</v>
+        <v>17215.79</v>
       </c>
       <c r="G6" s="8">
         <v>215.46</v>
       </c>
       <c r="H6" s="8">
-        <v>6274.09</v>
+        <v>14536.03</v>
       </c>
       <c r="I6" s="8">
-        <v>14725.91</v>
+        <v>6463.9699999999993</v>
       </c>
       <c r="J6" s="8">
-        <v>858.85153846153844</v>
+        <v>2154.6566666666663</v>
       </c>
       <c r="K6" s="9">
-        <v>17825.810624999998</v>
+        <v>16213.264230769231</v>
       </c>
       <c r="L6" s="23">
-        <v>-1.8443751684695257E-2</v>
+        <v>-0.14314184826836296</v>
       </c>
       <c r="M6" s="8">
         <v>18128.64</v>
       </c>
       <c r="N6" s="23">
-        <v>-1.6704472867242259E-2</v>
+        <v>-0.10565468613369604</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>5</v>
@@ -3449,40 +3447,40 @@
         <v>16500</v>
       </c>
       <c r="C7" s="2">
-        <v>353.34</v>
+        <v>229.84</v>
       </c>
       <c r="D7" s="2">
-        <v>528.33000000000004</v>
+        <v>987</v>
       </c>
       <c r="E7" s="2">
-        <v>7857.5099999999993</v>
+        <v>11923.33</v>
       </c>
       <c r="F7" s="2">
-        <v>6618.38</v>
+        <v>11329.050000000001</v>
       </c>
       <c r="G7" s="2">
-        <v>36.269999999999996</v>
+        <v>183.16</v>
       </c>
       <c r="H7" s="2">
-        <v>5183.55</v>
+        <v>11740.17</v>
       </c>
       <c r="I7" s="2">
-        <v>11316.45</v>
+        <v>4759.83</v>
       </c>
       <c r="J7" s="2">
-        <v>667.59692307692319</v>
+        <v>1586.61</v>
       </c>
       <c r="K7" s="3">
-        <v>14175.997499999998</v>
+        <v>13094.805</v>
       </c>
       <c r="L7" s="23">
-        <v>0.18722557483855554</v>
+        <v>5.2456295982452023E-2</v>
       </c>
       <c r="M7" s="2">
         <v>12669.5</v>
       </c>
       <c r="N7" s="23">
-        <v>0.11890741544654461</v>
+        <v>3.3569201625952019E-2</v>
       </c>
       <c r="O7" s="13" t="s">
         <v>6</v>
@@ -3496,38 +3494,38 @@
         <v>23000</v>
       </c>
       <c r="C8" s="8">
-        <v>621.63</v>
+        <v>201.32</v>
       </c>
       <c r="D8" s="8">
-        <v>290.36</v>
+        <v>719.31</v>
       </c>
       <c r="E8" s="8">
-        <v>12917.76</v>
+        <v>20236.849999999999</v>
       </c>
       <c r="F8" s="8">
-        <v>8453.9500000000007</v>
+        <v>14275.27</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8">
-        <v>8641.2000000000007</v>
+        <v>20236.849999999999</v>
       </c>
       <c r="I8" s="8">
-        <v>14358.8</v>
+        <v>2763.1500000000015</v>
       </c>
       <c r="J8" s="8">
-        <v>775.55692307692311</v>
+        <v>921.05000000000052</v>
       </c>
       <c r="K8" s="9">
-        <v>23413.440000000002</v>
+        <v>22571.87115384615</v>
       </c>
       <c r="L8" s="23">
-        <v>0.52801471501487474</v>
+        <v>0.41761591899837952</v>
       </c>
       <c r="M8" s="8">
         <v>15939.4</v>
       </c>
       <c r="N8" s="23">
-        <v>0.46890347189982068</v>
+        <v>0.41610544649398035</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>7</v>
@@ -3541,38 +3539,38 @@
         <v>23500</v>
       </c>
       <c r="C9" s="2">
-        <v>449.33</v>
+        <v>562.83000000000004</v>
       </c>
       <c r="D9" s="2">
-        <v>394.82</v>
+        <v>514.45000000000005</v>
       </c>
       <c r="E9" s="2">
-        <v>11280.07</v>
+        <v>18156.669999999998</v>
       </c>
       <c r="F9" s="2">
-        <v>8328.07</v>
+        <v>13282.19</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
-        <v>7822.21</v>
+        <v>18156.669999999998</v>
       </c>
       <c r="I9" s="2">
-        <v>15677.79</v>
+        <v>5343.3300000000017</v>
       </c>
       <c r="J9" s="2">
-        <v>939.99461538461537</v>
+        <v>1781.1100000000006</v>
       </c>
       <c r="K9" s="3">
-        <v>20445.126875000002</v>
+        <v>20251.670384615383</v>
       </c>
       <c r="L9" s="23">
-        <v>0.35446387938622026</v>
+        <v>0.36699369606969923</v>
       </c>
       <c r="M9" s="2">
         <v>14560.61</v>
       </c>
       <c r="N9" s="23">
-        <v>0.40413944711107574</v>
+        <v>0.39085315688115968</v>
       </c>
       <c r="O9" s="13" t="s">
         <v>8</v>
@@ -3586,40 +3584,40 @@
         <v>17000</v>
       </c>
       <c r="C10" s="8">
-        <v>666.02</v>
+        <v>531.98</v>
       </c>
       <c r="D10" s="8">
-        <v>476.06</v>
+        <v>397.14</v>
       </c>
       <c r="E10" s="8">
-        <v>8684.31</v>
+        <v>13831.12</v>
       </c>
       <c r="F10" s="8">
-        <v>7262.01</v>
+        <v>11423.65</v>
       </c>
       <c r="G10" s="8">
         <v>28.4</v>
       </c>
       <c r="H10" s="8">
-        <v>5721.13</v>
+        <v>13802.720000000001</v>
       </c>
       <c r="I10" s="8">
-        <v>11278.869999999999</v>
+        <v>3197.2799999999988</v>
       </c>
       <c r="J10" s="8">
-        <v>641.85307692307697</v>
+        <v>1065.7599999999995</v>
       </c>
       <c r="K10" s="9">
-        <v>15688.836875000001</v>
+        <v>15395.34153846154</v>
       </c>
       <c r="L10" s="23">
-        <v>0.19585486662783438</v>
+        <v>0.21074437679725833</v>
       </c>
       <c r="M10" s="8">
         <v>12418.52</v>
       </c>
       <c r="N10" s="23">
-        <v>0.26334191795801742</v>
+        <v>0.23970823725061763</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>9</v>
@@ -3633,38 +3631,40 @@
         <v>21000</v>
       </c>
       <c r="C11" s="6">
-        <v>479.59</v>
+        <v>382.5</v>
       </c>
       <c r="D11" s="6">
-        <v>497.11</v>
+        <v>699.82</v>
       </c>
       <c r="E11" s="6">
-        <v>10757.13</v>
+        <v>16096.4</v>
       </c>
       <c r="F11" s="6">
-        <v>9356.7000000000007</v>
-      </c>
-      <c r="G11" s="6"/>
+        <v>15831.65</v>
+      </c>
+      <c r="G11" s="6">
+        <v>13.77</v>
+      </c>
       <c r="H11" s="6">
-        <v>7111.95</v>
+        <v>16082.63</v>
       </c>
       <c r="I11" s="6">
-        <v>13888.05</v>
+        <v>4917.3700000000008</v>
       </c>
       <c r="J11" s="6">
-        <v>787.91307692307703</v>
+        <v>1639.1233333333337</v>
       </c>
       <c r="K11" s="10">
-        <v>19497.298125000001</v>
+        <v>17938.318076923075</v>
       </c>
       <c r="L11" s="37">
-        <v>0.14967135849177582</v>
+        <v>1.6722830532509222E-2</v>
       </c>
       <c r="M11" s="6">
         <v>17767.93</v>
       </c>
       <c r="N11" s="23">
-        <v>9.7330872251297648E-2</v>
+        <v>9.5896413888998215E-3</v>
       </c>
       <c r="O11" s="38" t="s">
         <v>12</v>

--- a/data/relatorio_vendas.xlsx
+++ b/data/relatorio_vendas.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Projeto Financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E29292-A949-4DA1-ABCD-7FD4CBBE5E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA282C80-36AB-4CA1-BD68-598DA7A841E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JANEIRO" sheetId="219" r:id="rId1"/>
     <sheet name="FEVEREIRO" sheetId="223" r:id="rId2"/>
     <sheet name=" MARÇO" sheetId="224" r:id="rId3"/>
     <sheet name="ABRIL" sheetId="226" r:id="rId4"/>
+    <sheet name="MAIO" sheetId="227" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="43">
   <si>
     <t>LOJA</t>
   </si>
@@ -155,13 +156,19 @@
     <t>ABR.2024</t>
   </si>
   <si>
-    <t>VENDA DO DIA 27/04/2025</t>
+    <t xml:space="preserve">  META DO DIA 28/04</t>
   </si>
   <si>
-    <t>VENDAS DO DIA 27/04/2024</t>
+    <t>VENDA DO DIA 30/04/2025</t>
   </si>
   <si>
-    <t xml:space="preserve">  META DO DIA 28/04</t>
+    <t>VENDAS DO DIA 30/04/2024</t>
+  </si>
+  <si>
+    <t>VENDA DO DIA 07/05/2025</t>
+  </si>
+  <si>
+    <t>VENDAS DO DIA 07/05/2024</t>
   </si>
 </sst>
 </file>
@@ -3139,8 +3146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC79EF61-07CF-4DE0-923B-C1603E1585C7}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="95" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3169,10 +3176,10 @@
         <v>33</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>34</v>
@@ -3190,7 +3197,7 @@
         <v>16</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1" s="32" t="s">
         <v>14</v>
@@ -3216,25 +3223,25 @@
         <v>17000</v>
       </c>
       <c r="C2" s="35">
-        <v>193.07</v>
+        <v>649.12</v>
       </c>
       <c r="D2" s="35">
-        <v>555.79999999999995</v>
+        <v>537</v>
       </c>
       <c r="E2" s="35">
-        <v>10737.44</v>
+        <v>12169.75</v>
       </c>
       <c r="F2" s="35">
-        <v>12621</v>
+        <v>13789.99</v>
       </c>
       <c r="G2" s="20">
         <v>196.41</v>
       </c>
       <c r="H2" s="20">
-        <v>10541.03</v>
+        <v>11973.34</v>
       </c>
       <c r="I2" s="20">
-        <v>6458.9699999999993</v>
+        <v>5026.66</v>
       </c>
       <c r="J2" s="20">
         <v>2152.9899999999998</v>
@@ -3243,13 +3250,13 @@
         <v>11757.302692307694</v>
       </c>
       <c r="L2" s="23">
-        <v>-0.14924015529672771</v>
+        <v>-0.11749392131538883</v>
       </c>
       <c r="M2" s="20">
         <v>13789.99</v>
       </c>
       <c r="N2" s="23">
-        <v>-0.14740310237297521</v>
+        <v>-0.100727463492411</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>1</v>
@@ -3263,23 +3270,23 @@
         <v>29000</v>
       </c>
       <c r="C3" s="2">
-        <v>456.83</v>
+        <v>849.56</v>
       </c>
       <c r="D3" s="2">
-        <v>1054.3</v>
+        <v>683.52</v>
       </c>
       <c r="E3" s="2">
-        <v>26028.02</v>
+        <v>28810</v>
       </c>
       <c r="F3" s="2">
-        <v>22122.17</v>
+        <v>24611.05</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
-        <v>26028.02</v>
+        <v>28810</v>
       </c>
       <c r="I3" s="2">
-        <v>2971.9799999999996</v>
+        <v>190</v>
       </c>
       <c r="J3" s="2">
         <v>990.65999999999985</v>
@@ -3288,13 +3295,13 @@
         <v>29031.253076923076</v>
       </c>
       <c r="L3" s="23">
-        <v>0.17655817670689644</v>
+        <v>0.17061238752511584</v>
       </c>
       <c r="M3" s="2">
         <v>24611.05</v>
       </c>
       <c r="N3" s="23">
-        <v>0.17960237685604952</v>
+        <v>0.21241997279386993</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>2</v>
@@ -3308,25 +3315,25 @@
         <v>19000</v>
       </c>
       <c r="C4" s="8">
-        <v>486.3</v>
+        <v>618.57000000000005</v>
       </c>
       <c r="D4" s="8">
-        <v>837.89</v>
+        <v>338.5</v>
       </c>
       <c r="E4" s="8">
-        <v>15739.54</v>
+        <v>17901.88</v>
       </c>
       <c r="F4" s="8">
-        <v>14656.95</v>
+        <v>15721.71</v>
       </c>
       <c r="G4" s="8">
         <v>51.99</v>
       </c>
       <c r="H4" s="8">
-        <v>15687.550000000001</v>
+        <v>17849.89</v>
       </c>
       <c r="I4" s="8">
-        <v>3312.4499999999989</v>
+        <v>1150.1100000000006</v>
       </c>
       <c r="J4" s="8">
         <v>1104.1499999999996</v>
@@ -3335,13 +3342,13 @@
         <v>17497.651923076923</v>
       </c>
       <c r="L4" s="23">
-        <v>7.3861888046285171E-2</v>
+        <v>0.13867257442097597</v>
       </c>
       <c r="M4" s="8">
         <v>15721.71</v>
       </c>
       <c r="N4" s="23">
-        <v>0.11296111702078988</v>
+        <v>0.17591445659718757</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>3</v>
@@ -3354,24 +3361,26 @@
       <c r="B5" s="39">
         <v>23900</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>1501.83</v>
+      </c>
       <c r="D5" s="2">
-        <v>282.45999999999998</v>
+        <v>1230.1099999999999</v>
       </c>
       <c r="E5" s="2">
-        <v>21025.02</v>
+        <v>24887.59</v>
       </c>
       <c r="F5" s="2">
-        <v>18800.73</v>
+        <v>20858.75</v>
       </c>
       <c r="G5" s="2">
         <v>39.18</v>
       </c>
       <c r="H5" s="2">
-        <v>20985.84</v>
+        <v>24848.41</v>
       </c>
       <c r="I5" s="2">
-        <v>2914.16</v>
+        <v>-948.40999999999985</v>
       </c>
       <c r="J5" s="2">
         <v>971.38666666666666</v>
@@ -3380,13 +3389,13 @@
         <v>24522.66</v>
       </c>
       <c r="L5" s="23">
-        <v>0.11830870397053729</v>
+        <v>0.19314867861209323</v>
       </c>
       <c r="M5" s="2">
         <v>20858.75</v>
       </c>
       <c r="N5" s="23">
-        <v>0.17565338287289506</v>
+        <v>0.25271219512195114</v>
       </c>
       <c r="O5" s="13" t="s">
         <v>4</v>
@@ -3400,25 +3409,25 @@
         <v>21000</v>
       </c>
       <c r="C6" s="8">
-        <v>190.19</v>
+        <v>632.64</v>
       </c>
       <c r="D6" s="8">
-        <v>861.43</v>
+        <v>264.94</v>
       </c>
       <c r="E6" s="8">
-        <v>14751.49</v>
+        <v>16808.34</v>
       </c>
       <c r="F6" s="8">
-        <v>17215.79</v>
+        <v>18128.64</v>
       </c>
       <c r="G6" s="8">
         <v>215.46</v>
       </c>
       <c r="H6" s="8">
-        <v>14536.03</v>
+        <v>16592.88</v>
       </c>
       <c r="I6" s="8">
-        <v>6463.9699999999993</v>
+        <v>4407.119999999999</v>
       </c>
       <c r="J6" s="8">
         <v>2154.6566666666663</v>
@@ -3427,13 +3436,13 @@
         <v>16213.264230769231</v>
       </c>
       <c r="L6" s="23">
-        <v>-0.14314184826836296</v>
+        <v>-7.2829511755983845E-2</v>
       </c>
       <c r="M6" s="8">
         <v>18128.64</v>
       </c>
       <c r="N6" s="23">
-        <v>-0.10565468613369604</v>
+        <v>-5.2025807940206191E-2</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>5</v>
@@ -3447,25 +3456,25 @@
         <v>16500</v>
       </c>
       <c r="C7" s="2">
-        <v>229.84</v>
+        <v>417.64</v>
       </c>
       <c r="D7" s="2">
-        <v>987</v>
+        <v>388.89</v>
       </c>
       <c r="E7" s="2">
-        <v>11923.33</v>
+        <v>12852.55</v>
       </c>
       <c r="F7" s="2">
-        <v>11329.050000000001</v>
+        <v>12669.5</v>
       </c>
       <c r="G7" s="2">
         <v>183.16</v>
       </c>
       <c r="H7" s="2">
-        <v>11740.17</v>
+        <v>12669.39</v>
       </c>
       <c r="I7" s="2">
-        <v>4759.83</v>
+        <v>3830.6100000000006</v>
       </c>
       <c r="J7" s="2">
         <v>1586.61</v>
@@ -3474,13 +3483,13 @@
         <v>13094.805</v>
       </c>
       <c r="L7" s="23">
-        <v>5.2456295982452023E-2</v>
+        <v>1.4448083981214666E-2</v>
       </c>
       <c r="M7" s="2">
         <v>12669.5</v>
       </c>
       <c r="N7" s="23">
-        <v>3.3569201625952019E-2</v>
+        <v>3.5705293364830054E-2</v>
       </c>
       <c r="O7" s="13" t="s">
         <v>6</v>
@@ -3494,23 +3503,23 @@
         <v>23000</v>
       </c>
       <c r="C8" s="8">
-        <v>201.32</v>
+        <v>867</v>
       </c>
       <c r="D8" s="8">
-        <v>719.31</v>
+        <v>634.80999999999995</v>
       </c>
       <c r="E8" s="8">
-        <v>20236.849999999999</v>
+        <v>22813.7</v>
       </c>
       <c r="F8" s="8">
-        <v>14275.27</v>
+        <v>15939.4</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8">
-        <v>20236.849999999999</v>
+        <v>22813.7</v>
       </c>
       <c r="I8" s="8">
-        <v>2763.1500000000015</v>
+        <v>186.29999999999927</v>
       </c>
       <c r="J8" s="8">
         <v>921.05000000000052</v>
@@ -3519,13 +3528,13 @@
         <v>22571.87115384615</v>
       </c>
       <c r="L8" s="23">
-        <v>0.41761591899837952</v>
+        <v>0.43127721244212469</v>
       </c>
       <c r="M8" s="8">
         <v>15939.4</v>
       </c>
       <c r="N8" s="23">
-        <v>0.41610544649398035</v>
+        <v>0.4823942557436291</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>7</v>
@@ -3539,23 +3548,23 @@
         <v>23500</v>
       </c>
       <c r="C9" s="2">
-        <v>562.83000000000004</v>
+        <v>917.02</v>
       </c>
       <c r="D9" s="2">
-        <v>514.45000000000005</v>
+        <v>444.99</v>
       </c>
       <c r="E9" s="2">
-        <v>18156.669999999998</v>
+        <v>20971.02</v>
       </c>
       <c r="F9" s="2">
-        <v>13282.19</v>
+        <v>14560.61</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
-        <v>18156.669999999998</v>
+        <v>20971.02</v>
       </c>
       <c r="I9" s="2">
-        <v>5343.3300000000017</v>
+        <v>2528.9799999999996</v>
       </c>
       <c r="J9" s="2">
         <v>1781.1100000000006</v>
@@ -3564,13 +3573,13 @@
         <v>20251.670384615383</v>
       </c>
       <c r="L9" s="23">
-        <v>0.36699369606969923</v>
+        <v>0.44025696725617935</v>
       </c>
       <c r="M9" s="2">
         <v>14560.61</v>
       </c>
       <c r="N9" s="23">
-        <v>0.39085315688115968</v>
+        <v>0.49169471608675736</v>
       </c>
       <c r="O9" s="13" t="s">
         <v>8</v>
@@ -3584,25 +3593,25 @@
         <v>17000</v>
       </c>
       <c r="C10" s="8">
-        <v>531.98</v>
+        <v>608.02</v>
       </c>
       <c r="D10" s="8">
-        <v>397.14</v>
+        <v>357.42</v>
       </c>
       <c r="E10" s="8">
-        <v>13831.12</v>
+        <v>15361.2</v>
       </c>
       <c r="F10" s="8">
-        <v>11423.65</v>
+        <v>12418.52</v>
       </c>
       <c r="G10" s="8">
         <v>28.4</v>
       </c>
       <c r="H10" s="8">
-        <v>13802.720000000001</v>
+        <v>15332.800000000001</v>
       </c>
       <c r="I10" s="8">
-        <v>3197.2799999999988</v>
+        <v>1667.1999999999989</v>
       </c>
       <c r="J10" s="8">
         <v>1065.7599999999995</v>
@@ -3611,13 +3620,13 @@
         <v>15395.34153846154</v>
       </c>
       <c r="L10" s="23">
-        <v>0.21074437679725833</v>
+        <v>0.2369589935032515</v>
       </c>
       <c r="M10" s="8">
         <v>12418.52</v>
       </c>
       <c r="N10" s="23">
-        <v>0.23970823725061763</v>
+        <v>0.2787675181905736</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>9</v>
@@ -3631,25 +3640,25 @@
         <v>21000</v>
       </c>
       <c r="C11" s="6">
-        <v>382.5</v>
+        <v>951.15</v>
       </c>
       <c r="D11" s="6">
-        <v>699.82</v>
+        <v>885.11</v>
       </c>
       <c r="E11" s="6">
-        <v>16096.4</v>
+        <v>18067.54</v>
       </c>
       <c r="F11" s="6">
-        <v>15831.65</v>
+        <v>17767.93</v>
       </c>
       <c r="G11" s="6">
         <v>13.77</v>
       </c>
       <c r="H11" s="6">
-        <v>16082.63</v>
+        <v>18053.77</v>
       </c>
       <c r="I11" s="6">
-        <v>4917.3700000000008</v>
+        <v>2946.2299999999996</v>
       </c>
       <c r="J11" s="6">
         <v>1639.1233333333337</v>
@@ -3658,13 +3667,13 @@
         <v>17938.318076923075</v>
       </c>
       <c r="L11" s="37">
-        <v>1.6722830532509222E-2</v>
+        <v>1.6862403217482294E-2</v>
       </c>
       <c r="M11" s="6">
         <v>17767.93</v>
       </c>
       <c r="N11" s="23">
-        <v>9.5896413888998215E-3</v>
+        <v>5.2376247542623135E-2</v>
       </c>
       <c r="O11" s="38" t="s">
         <v>12</v>
@@ -3674,4 +3683,530 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBF836C-6FC6-4271-A788-A734B7B564A6}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20">
+        <v>14000</v>
+      </c>
+      <c r="C2" s="35">
+        <v>232.12</v>
+      </c>
+      <c r="D2" s="35">
+        <v>587.97</v>
+      </c>
+      <c r="E2" s="35">
+        <v>2675.55</v>
+      </c>
+      <c r="F2" s="35">
+        <v>3632.64</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20">
+        <v>11973.34</v>
+      </c>
+      <c r="I2" s="20">
+        <v>5026.66</v>
+      </c>
+      <c r="J2" s="20">
+        <v>2152.9899999999998</v>
+      </c>
+      <c r="K2" s="21">
+        <v>11757.302692307694</v>
+      </c>
+      <c r="L2" s="23">
+        <v>-0.26346954281183926</v>
+      </c>
+      <c r="M2" s="20">
+        <v>15954.86</v>
+      </c>
+      <c r="N2" s="23">
+        <v>-0.21312353438677334</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>29000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1160.1600000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>812.91</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8320.07</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6741.89</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
+        <v>28810</v>
+      </c>
+      <c r="I3" s="2">
+        <v>190</v>
+      </c>
+      <c r="J3" s="2">
+        <v>990.65999999999985</v>
+      </c>
+      <c r="K3" s="3">
+        <v>29031.253076923076</v>
+      </c>
+      <c r="L3" s="23">
+        <v>0.23408569407095045</v>
+      </c>
+      <c r="M3" s="2">
+        <v>26657.07</v>
+      </c>
+      <c r="N3" s="23">
+        <v>0.46453936841289989</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>19000</v>
+      </c>
+      <c r="C4" s="8">
+        <v>544.29</v>
+      </c>
+      <c r="D4" s="8">
+        <v>557.39</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3339.63</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3910.46</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8">
+        <v>17849.89</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1150.1100000000006</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1104.1499999999996</v>
+      </c>
+      <c r="K4" s="9">
+        <v>17497.651923076923</v>
+      </c>
+      <c r="L4" s="23">
+        <v>-0.1459751538182209</v>
+      </c>
+      <c r="M4" s="8">
+        <v>17413.68</v>
+      </c>
+      <c r="N4" s="23">
+        <v>-0.10009994794543488</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="39">
+        <v>24800</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1277.3599999999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1297.1600000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4615.29</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4855.5</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
+        <v>24848.41</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-948.40999999999985</v>
+      </c>
+      <c r="J5" s="2">
+        <v>971.38666666666666</v>
+      </c>
+      <c r="K5" s="3">
+        <v>24522.66</v>
+      </c>
+      <c r="L5" s="23">
+        <v>-4.947173308619085E-2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>18930.86</v>
+      </c>
+      <c r="N5" s="23">
+        <v>0.16480867747159919</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>19000</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1090.26</v>
+      </c>
+      <c r="D6" s="8">
+        <v>625.14</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5421.59</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3899.92</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
+        <v>16592.88</v>
+      </c>
+      <c r="I6" s="8">
+        <v>4407.119999999999</v>
+      </c>
+      <c r="J6" s="8">
+        <v>2154.6566666666663</v>
+      </c>
+      <c r="K6" s="9">
+        <v>16213.264230769231</v>
+      </c>
+      <c r="L6" s="23">
+        <v>0.39017979855997054</v>
+      </c>
+      <c r="M6" s="8">
+        <v>18241.169999999998</v>
+      </c>
+      <c r="N6" s="23">
+        <v>0.39463468963550413</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>16000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>692.48</v>
+      </c>
+      <c r="D7" s="2">
+        <v>364.63</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3023.86</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3624.23</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>12669.39</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3830.6100000000006</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1586.61</v>
+      </c>
+      <c r="K7" s="3">
+        <v>13094.805</v>
+      </c>
+      <c r="L7" s="23">
+        <v>-0.16565449764501708</v>
+      </c>
+      <c r="M7" s="2">
+        <v>14673.53</v>
+      </c>
+      <c r="N7" s="23">
+        <v>-3.302875732959009E-2</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>23000</v>
+      </c>
+      <c r="C8" s="8">
+        <v>629.72</v>
+      </c>
+      <c r="D8" s="8">
+        <v>314.8</v>
+      </c>
+      <c r="E8" s="8">
+        <v>6095.71</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2887.16</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8">
+        <v>22813.7</v>
+      </c>
+      <c r="I8" s="8">
+        <v>186.29999999999927</v>
+      </c>
+      <c r="J8" s="8">
+        <v>921.05000000000052</v>
+      </c>
+      <c r="K8" s="9">
+        <v>22571.87115384615</v>
+      </c>
+      <c r="L8" s="23">
+        <v>1.1113170035605924</v>
+      </c>
+      <c r="M8" s="8">
+        <v>15221.81</v>
+      </c>
+      <c r="N8" s="23">
+        <v>0.87907659621798762</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>22000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1089.4100000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>639.45000000000005</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5364.26</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4196.4399999999996</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <v>20971.02</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2528.9799999999996</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1781.1100000000006</v>
+      </c>
+      <c r="K9" s="3">
+        <v>20251.670384615383</v>
+      </c>
+      <c r="L9" s="23">
+        <v>0.27828826338515511</v>
+      </c>
+      <c r="M9" s="2">
+        <v>16952.71</v>
+      </c>
+      <c r="N9" s="23">
+        <v>0.48476311230112828</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>15700</v>
+      </c>
+      <c r="C10" s="8">
+        <v>543.19000000000005</v>
+      </c>
+      <c r="D10" s="8">
+        <v>642.38</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3985.52</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2681.39</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8">
+        <v>15332.800000000001</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1667.1999999999989</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1065.7599999999995</v>
+      </c>
+      <c r="K10" s="9">
+        <v>15395.34153846154</v>
+      </c>
+      <c r="L10" s="23">
+        <v>0.48636341598946814</v>
+      </c>
+      <c r="M10" s="8">
+        <v>10957.13</v>
+      </c>
+      <c r="N10" s="23">
+        <v>0.70676866605088662</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6">
+        <v>20500</v>
+      </c>
+      <c r="C11" s="6">
+        <v>996.5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>623.04</v>
+      </c>
+      <c r="E11" s="6">
+        <v>6589.2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>4909.93</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>18053.77</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2946.2299999999996</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1639.1233333333337</v>
+      </c>
+      <c r="K11" s="10">
+        <v>17938.318076923075</v>
+      </c>
+      <c r="L11" s="37">
+        <v>0.34201505927783077</v>
+      </c>
+      <c r="M11" s="6">
+        <v>18961.810000000001</v>
+      </c>
+      <c r="N11" s="23">
+        <v>0.63056975289562789</v>
+      </c>
+      <c r="O11" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>